--- a/doc/Reflection_DB設計.xlsx
+++ b/doc/Reflection_DB設計.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\作業領域\P\Reflection\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15497746-645E-4F30-9710-0A7DE2F206B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50772977-7C7B-4526-BD6F-17FD1C847131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5304C321-888D-49B2-A2E7-CF5D9D60446E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5304C321-888D-49B2-A2E7-CF5D9D60446E}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル情報" sheetId="2" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
   <si>
     <t>論理名</t>
   </si>
@@ -71,19 +66,6 @@
     <t>テーブル詳細</t>
     <rPh sb="4" eb="6">
       <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全てのテーブルは以下を持つ</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -538,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,6 +531,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A12B60-A046-4D65-B8B6-F945AF03FD8A}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -909,340 +894,340 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>41</v>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>6</v>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>49</v>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
@@ -1253,7 +1238,6 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
@@ -1295,26 +1279,6 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,9 +1288,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA45AD1-2661-41ED-8A3F-0AF20E247EB6}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1337,539 +1303,550 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>25</v>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>22</v>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>51</v>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>50</v>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
-      <c r="C30" t="s">
-        <v>52</v>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
